--- a/jumbo/Datos_jumbo.xlsx
+++ b/jumbo/Datos_jumbo.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ad3627d314589ff4/Escritorio/semestre 8/simulacion/proyecto/datos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ad3627d314589ff4/Escritorio/semestre 8/simulacion/proyecto/Proyecto-Fundamentos-Simulacion/jumbo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="13_ncr:1_{600C4566-3012-4C7D-8BC5-7C1FCD476729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D594E8B2-228C-4D81-973F-1A3DFDA7E9EF}"/>
+  <xr:revisionPtr revIDLastSave="128" documentId="13_ncr:1_{600C4566-3012-4C7D-8BC5-7C1FCD476729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A93AA61-D98B-4711-A059-190C8B6392D8}"/>
   <bookViews>
-    <workbookView xWindow="5160" yWindow="2325" windowWidth="21600" windowHeight="11295" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TIEMPO_CAJA_NORMAL" sheetId="1" r:id="rId1"/>
     <sheet name="TIEMPO_CAJA_RAPIDA" sheetId="2" r:id="rId2"/>
     <sheet name="TIEMPO_COMPRANDO" sheetId="6" r:id="rId3"/>
-    <sheet name="LLEGADA_SUPERMERCADO" sheetId="5" r:id="rId4"/>
+    <sheet name="LLEGADA_SUPERMERCADO" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,15 +28,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>TIEMPO</t>
   </si>
   <si>
-    <t>CANTIDAD</t>
+    <t>HORA_INICIO</t>
   </si>
   <si>
-    <t>HORA</t>
+    <t>HORA_FIN</t>
+  </si>
+  <si>
+    <t>TASA</t>
+  </si>
+  <si>
+    <t>CANTIDAD_30_MINUTOS</t>
+  </si>
+  <si>
+    <t>INICIO</t>
+  </si>
+  <si>
+    <t>FIN</t>
   </si>
 </sst>
 </file>
@@ -1094,46 +1106,296 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10DC0302-6413-4DE9-AEB5-DAC99187E8C9}">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66A8B511-038C-4D48-B744-38A7B21E5527}">
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2">
+        <v>4.46</v>
+      </c>
+      <c r="D2">
+        <v>134</v>
+      </c>
+      <c r="F2">
+        <v>8</v>
+      </c>
+      <c r="G2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="B2">
+      <c r="C3">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D3">
+        <v>279</v>
+      </c>
+      <c r="F3">
+        <v>9</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>13.36</v>
+      </c>
+      <c r="D4">
+        <v>401</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>14.03</v>
+      </c>
+      <c r="D5">
+        <v>421</v>
+      </c>
+      <c r="F5">
+        <v>11</v>
+      </c>
+      <c r="G5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>15.9</v>
+      </c>
+      <c r="D6">
         <v>477</v>
       </c>
-      <c r="C2">
+      <c r="F6">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="B3">
-        <v>421</v>
-      </c>
-      <c r="C3">
+      <c r="G6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>17.03</v>
+      </c>
+      <c r="D7">
+        <v>511</v>
+      </c>
+      <c r="F7">
+        <v>13</v>
+      </c>
+      <c r="G7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>17.5</v>
+      </c>
+      <c r="D8">
+        <v>525</v>
+      </c>
+      <c r="F8">
+        <v>14</v>
+      </c>
+      <c r="G8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="D9">
+        <v>543</v>
+      </c>
+      <c r="F9">
+        <v>15</v>
+      </c>
+      <c r="G9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>17.23</v>
+      </c>
+      <c r="D10">
+        <v>517</v>
+      </c>
+      <c r="F10">
+        <v>16</v>
+      </c>
+      <c r="G10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>16.2</v>
+      </c>
+      <c r="D11">
+        <v>486</v>
+      </c>
+      <c r="F11">
+        <v>17</v>
+      </c>
+      <c r="G11">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
         <v>11</v>
+      </c>
+      <c r="C12">
+        <v>16.8</v>
+      </c>
+      <c r="D12">
+        <v>504</v>
+      </c>
+      <c r="F12">
+        <v>18</v>
+      </c>
+      <c r="G12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>17.7</v>
+      </c>
+      <c r="D13">
+        <v>531</v>
+      </c>
+      <c r="F13">
+        <v>19</v>
+      </c>
+      <c r="G13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="D14">
+        <v>498</v>
+      </c>
+      <c r="F14">
+        <v>20</v>
+      </c>
+      <c r="G14">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/jumbo/Datos_jumbo.xlsx
+++ b/jumbo/Datos_jumbo.xlsx
@@ -1171,700 +1171,700 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>00:04:16</t>
+          <t>00:02:51</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>00:04:44</t>
+          <t>00:03:09</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>00:01:34</t>
+          <t>00:01:03</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>00:08:38</t>
+          <t>00:05:45</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>00:00:34</t>
+          <t>00:00:22</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>00:08:34</t>
+          <t>00:05:42</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>00:01:52</t>
+          <t>00:01:15</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>00:04:19</t>
+          <t>00:02:52</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>00:04:11</t>
+          <t>00:02:47</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>00:11:55</t>
+          <t>00:07:56</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>00:10:52</t>
+          <t>00:07:14</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>00:00:07</t>
+          <t>00:00:04</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>00:00:02</t>
+          <t>00:00:01</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>00:02:21</t>
+          <t>00:01:34</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>00:00:06</t>
+          <t>00:00:04</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>00:03:12</t>
+          <t>00:02:08</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>00:02:17</t>
+          <t>00:01:31</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>00:03:17</t>
+          <t>00:02:11</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>00:01:44</t>
+          <t>00:01:09</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>00:00:57</t>
+          <t>00:00:38</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>00:08:58</t>
+          <t>00:05:58</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>00:03:54</t>
+          <t>00:02:36</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>00:00:01</t>
+          <t>00:00:00</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>00:00:18</t>
+          <t>00:00:12</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>00:02:59</t>
+          <t>00:01:59</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>00:01:01</t>
+          <t>00:00:40</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>00:01:34</t>
+          <t>00:01:02</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>00:04:33</t>
+          <t>00:03:02</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>00:01:18</t>
+          <t>00:00:52</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>00:07:48</t>
+          <t>00:05:12</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>00:03:49</t>
+          <t>00:02:32</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>00:02:24</t>
+          <t>00:01:36</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>00:00:35</t>
+          <t>00:00:23</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>00:01:34</t>
+          <t>00:01:03</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>00:04:19</t>
+          <t>00:02:52</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>00:14:03</t>
+          <t>00:09:22</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>00:00:13</t>
+          <t>00:00:09</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>00:00:26</t>
+          <t>00:00:17</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>00:04:02</t>
+          <t>00:02:41</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>00:05:23</t>
+          <t>00:03:35</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>00:00:16</t>
+          <t>00:00:11</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>00:05:18</t>
+          <t>00:03:32</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>00:04:38</t>
+          <t>00:03:05</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>00:03:29</t>
+          <t>00:02:19</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>00:01:14</t>
+          <t>00:00:49</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>00:01:45</t>
+          <t>00:01:10</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>00:01:22</t>
+          <t>00:00:54</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>00:05:30</t>
+          <t>00:03:40</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>00:01:11</t>
+          <t>00:00:47</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>00:01:10</t>
+          <t>00:00:46</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>00:08:12</t>
+          <t>00:05:28</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>00:07:34</t>
+          <t>00:05:03</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>00:10:23</t>
+          <t>00:06:55</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>00:04:56</t>
+          <t>00:03:17</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>00:00:16</t>
+          <t>00:00:10</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>00:00:17</t>
+          <t>00:00:11</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>00:02:26</t>
+          <t>00:01:37</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>00:05:49</t>
+          <t>00:03:52</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>00:06:28</t>
+          <t>00:04:18</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>00:03:02</t>
+          <t>00:02:01</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>00:09:21</t>
+          <t>00:06:14</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>00:00:29</t>
+          <t>00:00:19</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>00:00:45</t>
+          <t>00:00:30</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>00:01:12</t>
+          <t>00:00:48</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>00:00:53</t>
+          <t>00:00:35</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>00:01:07</t>
+          <t>00:00:44</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>00:00:22</t>
+          <t>00:00:15</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>00:01:24</t>
+          <t>00:00:56</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>00:00:05</t>
+          <t>00:00:03</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>00:02:18</t>
+          <t>00:01:32</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>00:08:44</t>
+          <t>00:05:49</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>00:01:46</t>
+          <t>00:01:10</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>00:02:56</t>
+          <t>00:01:57</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>00:02:50</t>
+          <t>00:01:53</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>00:08:07</t>
+          <t>00:05:25</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>00:03:58</t>
+          <t>00:02:39</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>00:05:13</t>
+          <t>00:03:29</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>00:01:13</t>
+          <t>00:00:49</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>00:07:08</t>
+          <t>00:04:45</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>00:00:36</t>
+          <t>00:00:24</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>00:01:34</t>
+          <t>00:01:02</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>00:04:00</t>
+          <t>00:02:40</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>00:01:13</t>
+          <t>00:00:48</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>00:06:31</t>
+          <t>00:04:20</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>00:05:54</t>
+          <t>00:03:56</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>00:00:32</t>
+          <t>00:00:21</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>00:00:47</t>
+          <t>00:00:31</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>00:00:09</t>
+          <t>00:00:06</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>00:05:52</t>
+          <t>00:03:54</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>00:01:14</t>
+          <t>00:00:49</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>00:01:29</t>
+          <t>00:00:59</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>00:00:56</t>
+          <t>00:00:37</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>00:00:23</t>
+          <t>00:00:15</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>00:01:49</t>
+          <t>00:01:13</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>00:00:48</t>
+          <t>00:00:32</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>00:02:29</t>
+          <t>00:01:39</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>00:00:40</t>
+          <t>00:00:27</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>00:02:08</t>
+          <t>00:01:25</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>00:08:53</t>
+          <t>00:05:55</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>00:01:23</t>
+          <t>00:00:55</t>
         </is>
       </c>
     </row>

--- a/jumbo/Datos_jumbo.xlsx
+++ b/jumbo/Datos_jumbo.xlsx
@@ -1171,700 +1171,700 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>00:02:51</t>
+          <t>00:04:48</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>00:03:09</t>
+          <t>00:05:20</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>00:01:03</t>
+          <t>00:01:46</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>00:05:45</t>
+          <t>00:09:42</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>00:00:22</t>
+          <t>00:00:38</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>00:05:42</t>
+          <t>00:09:38</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>00:01:15</t>
+          <t>00:02:06</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>00:02:52</t>
+          <t>00:04:51</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>00:02:47</t>
+          <t>00:04:43</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>00:07:56</t>
+          <t>00:13:24</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>00:07:14</t>
+          <t>00:12:13</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>00:00:04</t>
+          <t>00:00:08</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>00:00:01</t>
+          <t>00:00:03</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>00:01:34</t>
+          <t>00:02:38</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>00:00:04</t>
+          <t>00:00:06</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>00:02:08</t>
+          <t>00:03:36</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>00:01:31</t>
+          <t>00:02:35</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>00:02:11</t>
+          <t>00:03:42</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>00:01:09</t>
+          <t>00:01:57</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>00:00:38</t>
+          <t>00:01:04</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>00:05:58</t>
+          <t>00:10:05</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>00:02:36</t>
+          <t>00:04:23</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:00:01</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>00:00:12</t>
+          <t>00:00:21</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>00:01:59</t>
+          <t>00:03:22</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>00:00:40</t>
+          <t>00:01:08</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>00:01:02</t>
+          <t>00:01:46</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>00:03:02</t>
+          <t>00:05:08</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>00:00:52</t>
+          <t>00:01:28</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>00:05:12</t>
+          <t>00:08:46</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>00:02:32</t>
+          <t>00:04:18</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>00:01:36</t>
+          <t>00:02:42</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>00:00:23</t>
+          <t>00:00:40</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>00:01:03</t>
+          <t>00:01:46</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>00:02:52</t>
+          <t>00:04:51</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>00:09:22</t>
+          <t>00:15:49</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>00:00:09</t>
+          <t>00:00:15</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>00:00:17</t>
+          <t>00:00:29</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>00:02:41</t>
+          <t>00:04:32</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>00:03:35</t>
+          <t>00:06:03</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>00:00:11</t>
+          <t>00:00:18</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>00:03:32</t>
+          <t>00:05:58</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>00:03:05</t>
+          <t>00:05:12</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>00:02:19</t>
+          <t>00:03:56</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>00:00:49</t>
+          <t>00:01:24</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>00:01:10</t>
+          <t>00:01:59</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>00:00:54</t>
+          <t>00:01:32</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>00:03:40</t>
+          <t>00:06:11</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>00:00:47</t>
+          <t>00:01:20</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>00:00:46</t>
+          <t>00:01:18</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>00:05:28</t>
+          <t>00:09:14</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>00:05:03</t>
+          <t>00:08:31</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>00:06:55</t>
+          <t>00:11:41</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>00:03:17</t>
+          <t>00:05:33</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>00:00:10</t>
+          <t>00:00:18</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>00:00:11</t>
+          <t>00:00:19</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>00:01:37</t>
+          <t>00:02:44</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>00:03:52</t>
+          <t>00:06:32</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>00:04:18</t>
+          <t>00:07:16</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>00:02:01</t>
+          <t>00:03:25</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>00:06:14</t>
+          <t>00:10:31</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>00:00:19</t>
+          <t>00:00:33</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>00:00:30</t>
+          <t>00:00:50</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>00:00:48</t>
+          <t>00:01:21</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>00:00:35</t>
+          <t>00:01:00</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>00:00:44</t>
+          <t>00:01:15</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>00:00:15</t>
+          <t>00:00:25</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>00:00:56</t>
+          <t>00:01:35</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>00:00:03</t>
+          <t>00:00:06</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>00:01:32</t>
+          <t>00:02:36</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>00:05:49</t>
+          <t>00:09:50</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>00:01:10</t>
+          <t>00:01:59</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>00:01:57</t>
+          <t>00:03:18</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>00:01:53</t>
+          <t>00:03:11</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>00:05:25</t>
+          <t>00:09:08</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>00:02:39</t>
+          <t>00:04:28</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>00:03:29</t>
+          <t>00:05:52</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>00:00:49</t>
+          <t>00:01:22</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>00:04:45</t>
+          <t>00:08:01</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>00:00:24</t>
+          <t>00:00:41</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>00:01:02</t>
+          <t>00:01:46</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>00:02:40</t>
+          <t>00:04:30</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>00:00:48</t>
+          <t>00:01:22</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>00:04:20</t>
+          <t>00:07:19</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>00:03:56</t>
+          <t>00:06:39</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>00:00:21</t>
+          <t>00:00:36</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>00:00:31</t>
+          <t>00:00:53</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>00:00:06</t>
+          <t>00:00:10</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>00:03:54</t>
+          <t>00:06:36</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>00:00:49</t>
+          <t>00:01:23</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>00:00:59</t>
+          <t>00:01:41</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>00:00:37</t>
+          <t>00:01:03</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>00:00:15</t>
+          <t>00:00:26</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>00:01:13</t>
+          <t>00:02:03</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>00:00:32</t>
+          <t>00:00:54</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>00:01:39</t>
+          <t>00:02:47</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>00:00:27</t>
+          <t>00:00:45</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>00:01:25</t>
+          <t>00:02:25</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>00:05:55</t>
+          <t>00:09:59</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>00:00:55</t>
+          <t>00:01:34</t>
         </is>
       </c>
     </row>
